--- a/model/outputData/75_kW_1200_AggDmd/75kW_aging.xlsx
+++ b/model/outputData/75_kW_1200_AggDmd/75kW_aging.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Base</t>
   </si>
@@ -112,13 +112,17 @@
       <t>eqa</t>
     </r>
   </si>
+  <si>
+    <t>EV Only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -232,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -260,6 +264,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,7 +310,7 @@
           <c:x val="0.13729404828777"/>
           <c:y val="5.0925925925925923E-2"/>
           <c:w val="0.80640368540789853"/>
-          <c:h val="0.62990522018081074"/>
+          <c:h val="0.70927040369953753"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -621,6 +629,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6519742249955221E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0863416685141687E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2373540593904439E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3014346745490188E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.632195227889508E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4494986312307106E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9353646329610206E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7747840892737341E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0375209450940623E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1666893705353445E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5426895506191392E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2367169986000961E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2190939360967757E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9715148876748175E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4327867557822364E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10835031091543063</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21081138256557103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37211415279841104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6354942973739619</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.046424433570837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8000094432542857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4535668111705484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4478628517002594</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -746,6 +826,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.768935360600589E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2272195455031929E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.307805700303023E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3898162066667227E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5891568211948257E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2940281471363609E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4082149560792164E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4754028796389345E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.045738893961222E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.283864828336037E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5350036095013376E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1802447731011756E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7311163151385408E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1209488531975389E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0737347770616279E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4348620138769759E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5280917195284872E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1071042633130601E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10642849066657653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112582523583541</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4560237697819095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72627557257439934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85143664350285675</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -876,73 +1028,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6889344399722706E-3</c:v>
+                  <c:v>1.688934E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2163738375038937E-3</c:v>
+                  <c:v>2.2163740000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3593976029378187E-3</c:v>
+                  <c:v>2.359398E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.403123461556138E-3</c:v>
+                  <c:v>2.4031230000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5626621689537267E-3</c:v>
+                  <c:v>2.5626619999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.326770346598576E-3</c:v>
+                  <c:v>3.3267700000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3421750863808541E-3</c:v>
+                  <c:v>4.3421750000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.575443009151507E-3</c:v>
+                  <c:v>5.5754430000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9206132931246495E-3</c:v>
+                  <c:v>5.9206129999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2489091517774651E-3</c:v>
+                  <c:v>6.2489090000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5521670887042282E-3</c:v>
+                  <c:v>6.5521670000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8177376420677184E-3</c:v>
+                  <c:v>6.8177380000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6491960211993604E-3</c:v>
+                  <c:v>7.6491959999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8804722768183689E-3</c:v>
+                  <c:v>8.8804720000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0474733826231422E-2</c:v>
+                  <c:v>1.0474733999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.404971097463229E-2</c:v>
+                  <c:v>1.4049710999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5367047159009313E-2</c:v>
+                  <c:v>2.5367047E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9920696100895771E-2</c:v>
+                  <c:v>4.9920696000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10971977564465357</c:v>
+                  <c:v>0.109719776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23521370695729266</c:v>
+                  <c:v>0.23521370699999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.46254570374960724</c:v>
+                  <c:v>0.462545704</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.74740917895685466</c:v>
+                  <c:v>0.74740917900000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.89911427767800589</c:v>
+                  <c:v>0.89911427799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,7 +1132,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1010,7 +1162,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1024,7 +1176,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1042,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1073,7 +1225,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1084,13 +1236,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>F</a:t>
+                  <a:t>Faa</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="700"/>
-                  <a:t>aa</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1108,7 +1255,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1140,7 +1287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1182,7 +1329,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1221,7 +1368,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1050">
+        <a:defRPr sz="1100">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -1261,9 +1408,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13729404828777"/>
+          <c:x val="0.19304596266042232"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.80640368540789853"/>
+          <c:w val="0.75065183770848531"/>
           <c:h val="0.62990522018081074"/>
         </c:manualLayout>
       </c:layout>
@@ -1834,6 +1981,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.218247694651795E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6836360676512358E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2048614421124182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0205385177467759E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9175091589924375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0799609947978265E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3023824824551724E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.466579810720931E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4418182260617219E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2225921438826405E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0271877109555702E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0050781479307202E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0578418810169811E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1675627056189941E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7443146136322719E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4057044407930339E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14376571391210149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83994524972497653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6484518446767895</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.686811578474064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.26427200920639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>449.48996076646137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>786.39666531255773</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2130,6 +2349,965 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17618285214348206"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.76751487314085742"/>
+          <c:h val="0.70927040369953753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1200-8ev'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7701670288333389E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8816865073057284E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2212960121408563E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0589602855079684E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5198781098314215E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0333903938993581E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5198046931821068E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2396883173586464E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8495287158367094E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6049192248806096E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6191437425311069E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3447077704363109E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1663515318707892E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0871665337080038E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.386957299893943E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.58559468311802E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8677436428960636E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8919302081746078E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6759355481174021E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6035022972697533E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5642989290983303E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3819155625264206E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.893958968378521E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E4B-4C83-85FA-553BF34813C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1200-8ev'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$C$3:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E4B-4C83-85FA-553BF34813C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1200-8ev'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV + PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E4B-4C83-85FA-553BF34813C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1200-8ev'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1200-8ev'!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.218247694651795E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6836360676512358E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2048614421124182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0205385177467759E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9175091589924375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0799609947978265E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3023824824551724E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.466579810720931E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4418182260617219E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2225921438826405E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0271877109555702E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0050781479307202E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0578418810169811E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1675627056189941E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7443146136322719E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4057044407930339E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14376571391210149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83994524972497653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6484518446767895</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.686811578474064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.26427200920639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>449.48996076646137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>786.39666531255773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E4B-4C83-85FA-553BF34813C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328478424"/>
+        <c:axId val="328487608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328478424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328487608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328487608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Faa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328478424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2210,6 +3388,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3242,20 +4460,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>103187</xdr:colOff>
+      <xdr:colOff>103186</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28177</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125413</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>282480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3289,16 +5023,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>103186</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>49213</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409641</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91155</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125413</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>78337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3320,6 +5054,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612913</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42F6DA6-40C1-4277-87C9-B060F4B3C9EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3594,7 +5366,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,8 +5410,12 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -3651,10 +5427,14 @@
       <c r="B4" s="3">
         <v>8.7701670288333389E-4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>1.6519742249955221E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.768935360600589E-3</v>
+      </c>
       <c r="E4" s="3">
-        <v>1.6889344399722706E-3</v>
+        <v>1.688934E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3664,10 +5444,14 @@
       <c r="B5" s="3">
         <v>7.8816865073057284E-4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3">
+        <v>2.0863416685141687E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.2272195455031929E-3</v>
+      </c>
       <c r="E5" s="3">
-        <v>2.2163738375038937E-3</v>
+        <v>2.2163740000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,10 +5461,14 @@
       <c r="B6" s="3">
         <v>7.2212960121408563E-4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3">
+        <v>2.2373540593904439E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.307805700303023E-3</v>
+      </c>
       <c r="E6" s="3">
-        <v>2.3593976029378187E-3</v>
+        <v>2.359398E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,10 +5478,14 @@
       <c r="B7" s="3">
         <v>7.0589602855079684E-4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3">
+        <v>2.3014346745490188E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.3898162066667227E-3</v>
+      </c>
       <c r="E7" s="3">
-        <v>2.403123461556138E-3</v>
+        <v>2.4031230000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,10 +5495,14 @@
       <c r="B8" s="3">
         <v>7.5198781098314215E-4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3">
+        <v>2.632195227889508E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.5891568211948257E-3</v>
+      </c>
       <c r="E8" s="3">
-        <v>2.5626621689537267E-3</v>
+        <v>2.5626619999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,10 +5512,14 @@
       <c r="B9" s="3">
         <v>1.0333903938993581E-3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3">
+        <v>3.4494986312307106E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.2940281471363609E-3</v>
+      </c>
       <c r="E9" s="3">
-        <v>3.326770346598576E-3</v>
+        <v>3.3267700000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,10 +5529,14 @@
       <c r="B10" s="3">
         <v>1.5198046931821068E-3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3">
+        <v>4.9353646329610206E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.4082149560792164E-3</v>
+      </c>
       <c r="E10" s="3">
-        <v>4.3421750863808541E-3</v>
+        <v>4.3421750000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,10 +5546,14 @@
       <c r="B11" s="3">
         <v>2.2396883173586464E-3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3">
+        <v>6.7747840892737341E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.4754028796389345E-3</v>
+      </c>
       <c r="E11" s="3">
-        <v>5.575443009151507E-3</v>
+        <v>5.5754430000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,10 +5563,14 @@
       <c r="B12" s="3">
         <v>2.8495287158367094E-3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3">
+        <v>9.0375209450940623E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.045738893961222E-3</v>
+      </c>
       <c r="E12" s="3">
-        <v>5.9206132931246495E-3</v>
+        <v>5.9206129999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,10 +5580,14 @@
       <c r="B13" s="3">
         <v>3.6049192248806096E-3</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>1.1666893705353445E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.283864828336037E-3</v>
+      </c>
       <c r="E13" s="3">
-        <v>6.2489091517774651E-3</v>
+        <v>6.2489090000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,10 +5597,14 @@
       <c r="B14" s="3">
         <v>4.6191437425311069E-3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3">
+        <v>1.5426895506191392E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.5350036095013376E-3</v>
+      </c>
       <c r="E14" s="3">
-        <v>6.5521670887042282E-3</v>
+        <v>6.5521670000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,10 +5614,14 @@
       <c r="B15" s="3">
         <v>6.3447077704363109E-3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3">
+        <v>2.2367169986000961E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.1802447731011756E-3</v>
+      </c>
       <c r="E15" s="3">
-        <v>6.8177376420677184E-3</v>
+        <v>6.8177380000000003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,10 +5631,14 @@
       <c r="B16" s="3">
         <v>8.1663515318707892E-3</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3">
+        <v>3.2190939360967757E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.7311163151385408E-3</v>
+      </c>
       <c r="E16" s="3">
-        <v>7.6491960211993604E-3</v>
+        <v>7.6491959999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3820,10 +5648,14 @@
       <c r="B17" s="3">
         <v>1.0871665337080038E-2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3">
+        <v>4.9715148876748175E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9.1209488531975389E-3</v>
+      </c>
       <c r="E17" s="3">
-        <v>8.8804722768183689E-3</v>
+        <v>8.8804720000000004E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3833,10 +5665,14 @@
       <c r="B18" s="3">
         <v>1.386957299893943E-2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <v>7.4327867557822364E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.0737347770616279E-2</v>
+      </c>
       <c r="E18" s="3">
-        <v>1.0474733826231422E-2</v>
+        <v>1.0474733999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3846,10 +5682,14 @@
       <c r="B19" s="3">
         <v>1.58559468311802E-2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3">
+        <v>0.10835031091543063</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.4348620138769759E-2</v>
+      </c>
       <c r="E19" s="3">
-        <v>1.404971097463229E-2</v>
+        <v>1.4049710999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3859,10 +5699,14 @@
       <c r="B20" s="3">
         <v>1.8677436428960636E-2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3">
+        <v>0.21081138256557103</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.5280917195284872E-2</v>
+      </c>
       <c r="E20" s="3">
-        <v>2.5367047159009313E-2</v>
+        <v>2.5367047E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3872,10 +5716,14 @@
       <c r="B21" s="3">
         <v>1.8919302081746078E-2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3">
+        <v>0.37211415279841104</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.1071042633130601E-2</v>
+      </c>
       <c r="E21" s="3">
-        <v>4.9920696100895771E-2</v>
+        <v>4.9920696000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3885,10 +5733,14 @@
       <c r="B22" s="3">
         <v>1.6759355481174021E-2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3">
+        <v>0.6354942973739619</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.10642849066657653</v>
+      </c>
       <c r="E22" s="3">
-        <v>0.10971977564465357</v>
+        <v>0.109719776</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3898,10 +5750,14 @@
       <c r="B23" s="3">
         <v>1.6035022972697533E-2</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>1.046424433570837</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.23112582523583541</v>
+      </c>
       <c r="E23" s="3">
-        <v>0.23521370695729266</v>
+        <v>0.23521370699999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3911,10 +5767,14 @@
       <c r="B24" s="3">
         <v>1.5642989290983303E-2</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3">
+        <v>1.8000094432542857</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4560237697819095</v>
+      </c>
       <c r="E24" s="3">
-        <v>0.46254570374960724</v>
+        <v>0.462545704</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3924,10 +5784,14 @@
       <c r="B25" s="3">
         <v>1.3819155625264206E-2</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3">
+        <v>2.4535668111705484</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.72627557257439934</v>
+      </c>
       <c r="E25" s="3">
-        <v>0.74740917895685466</v>
+        <v>0.74740917900000003</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3937,10 +5801,14 @@
       <c r="B26" s="5">
         <v>9.893958968378521E-3</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="5">
+        <v>2.4478628517002594</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.85143664350285675</v>
+      </c>
       <c r="E26" s="5">
-        <v>0.89911427767800589</v>
+        <v>0.89911427799999999</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3953,15 +5821,15 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>0</v>
+        <v>9.3154350664962884</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:E27" si="0">SUM(D3:D26)</f>
-        <v>0</v>
+        <v>2.5400857263897376</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>2.6203588064739294</v>
+        <v>2.620358806</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -3989,15 +5857,15 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ref="C28:E28" si="1">C27/24</f>
-        <v>0</v>
+        <v>0.38814312777067866</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10583690526623907</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>0.10918161693641372</v>
+        <v>0.10918161691666667</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
@@ -4025,15 +5893,15 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ref="C29:E29" si="2">(C28*24*100)/180000</f>
-        <v>0</v>
+        <v>5.1752417036090492E-3</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4111587368831875E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>1.4557548924855163E-3</v>
+        <v>1.4557548922222222E-3</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -4061,15 +5929,15 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ref="C30:E30" si="3">1-C29</f>
-        <v>1</v>
+        <v>0.99482475829639094</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99858884126311687</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="3"/>
-        <v>0.99854424510751449</v>
+        <v>0.99854424510777773</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -4097,15 +5965,15 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" ref="C31:E31" si="4">C29*180000</f>
-        <v>0</v>
+        <v>931.54350664962885</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>254.00857263897376</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="4"/>
-        <v>262.03588064739296</v>
+        <v>262.03588059999998</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4118,15 +5986,15 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" ref="C32:E32" si="5">C31/24</f>
-        <v>0</v>
+        <v>38.814312777067869</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.583690526623906</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="5"/>
-        <v>10.918161693641373</v>
+        <v>10.918161691666667</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -4144,15 +6012,15 @@
       </c>
       <c r="C34">
         <f>C30*180000</f>
-        <v>180000</v>
+        <v>179068.45649335036</v>
       </c>
       <c r="D34">
         <f>D30*180000</f>
-        <v>180000</v>
+        <v>179745.99142736103</v>
       </c>
       <c r="E34">
         <f>E30*180000</f>
-        <v>179737.9641193526</v>
+        <v>179737.96411939999</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>22</v>
@@ -4174,15 +6042,15 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:E35" si="6">180000-C34</f>
-        <v>0</v>
+        <v>931.54350664964295</v>
       </c>
       <c r="D35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>254.00857263896614</v>
       </c>
       <c r="E35">
         <f t="shared" si="6"/>
-        <v>262.03588064739597</v>
+        <v>262.03588060001493</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>0</v>
@@ -4207,30 +6075,30 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:E36" si="7">C35/24</f>
-        <v>0</v>
+        <v>38.814312777068459</v>
       </c>
       <c r="D36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10.58369052662359</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>10.918161693641499</v>
+        <v>10.918161691667288</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="15">
         <f>C28</f>
-        <v>0</v>
+        <v>0.38814312777067866</v>
       </c>
       <c r="I36" s="16">
         <f>C29</f>
-        <v>0</v>
+        <v>5.1752417036090492E-3</v>
       </c>
       <c r="J36" s="17">
         <f>C32</f>
-        <v>0</v>
+        <v>38.814312777067869</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -4239,15 +6107,15 @@
       </c>
       <c r="H37" s="15">
         <f>D28</f>
-        <v>0</v>
+        <v>0.10583690526623907</v>
       </c>
       <c r="I37" s="16">
         <f>D29</f>
-        <v>0</v>
+        <v>1.4111587368831875E-3</v>
       </c>
       <c r="J37" s="17">
         <f>D32</f>
-        <v>0</v>
+        <v>10.583690526623906</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -4256,15 +6124,15 @@
       </c>
       <c r="H38" s="15">
         <f>E28</f>
-        <v>0.10918161693641372</v>
+        <v>0.10918161691666667</v>
       </c>
       <c r="I38" s="16">
         <f>E29</f>
-        <v>1.4557548924855163E-3</v>
+        <v>1.4557548922222222E-3</v>
       </c>
       <c r="J38" s="17">
         <f>E32</f>
-        <v>10.918161693641373</v>
+        <v>10.918161691666667</v>
       </c>
     </row>
   </sheetData>
@@ -4293,8 +6161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,7 +6211,9 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4354,7 +6224,9 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>7.218247694651795E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4365,7 +6237,9 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>1.6836360676512358E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4376,7 +6250,9 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>2.2048614421124182E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4387,7 +6263,9 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>2.0205385177467759E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4398,7 +6276,9 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>1.9175091589924375E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4409,7 +6289,9 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>2.0799609947978265E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4420,7 +6302,9 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>2.3023824824551724E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4431,7 +6315,9 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>2.466579810720931E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4442,7 +6328,9 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>2.4418182260617219E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4453,7 +6341,9 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>2.2225921438826405E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4464,7 +6354,9 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>2.0271877109555702E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4475,7 +6367,9 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>2.0050781479307202E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4486,7 +6380,9 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>2.0578418810169811E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4497,7 +6393,9 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>2.1675627056189941E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4508,7 +6406,9 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>2.7443146136322719E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4519,7 +6419,9 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>4.4057044407930339E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4530,7 +6432,9 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>0.14376571391210149</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4541,7 +6445,9 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>0.83994524972497653</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -4552,7 +6458,9 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>5.6484518446767895</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4563,7 +6471,9 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>34.686811578474064</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4574,7 +6484,9 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>156.26427200920639</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4585,7 +6497,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>449.48996076646137</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4596,7 +6510,9 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>786.39666531255773</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -4616,7 +6532,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1433.8245664061519</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4637,7 +6553,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.742690266922999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4658,7 +6574,7 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7965692035589732</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4683,7 +6599,7 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.2034307964410268</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4704,7 +6620,7 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>143382.45664061519</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4725,7 +6641,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5974.2690266922991</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -4765,20 +6681,20 @@
       </c>
       <c r="E35">
         <f>E30*180000</f>
-        <v>180000</v>
+        <v>36617.543359384821</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="21">
         <f>B28</f>
         <v>7.6902974666983965E-3</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="23">
         <f>B29</f>
         <v>1.0253729955597861E-4</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="21">
         <f>B32</f>
         <v>0.76902974666983959</v>
       </c>
@@ -4798,20 +6714,20 @@
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>143382.45664061519</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="15">
+        <v>24</v>
+      </c>
+      <c r="H36" s="22">
         <f>C28</f>
         <v>0</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="24">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="22">
         <f>C32</f>
         <v>0</v>
       </c>
@@ -4831,20 +6747,20 @@
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5974.2690266922991</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="22">
         <f>D28</f>
         <v>0</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="24">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="22">
         <f>D32</f>
         <v>0</v>
       </c>
@@ -4853,17 +6769,17 @@
       <c r="G38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="22">
         <f>E28</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
+        <v>59.742690266922999</v>
+      </c>
+      <c r="I38" s="24">
         <f>E29</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
+        <v>0.7965692035589732</v>
+      </c>
+      <c r="J38" s="22">
         <f>E32</f>
-        <v>0</v>
+        <v>5974.2690266922991</v>
       </c>
     </row>
   </sheetData>

--- a/model/outputData/75_kW_1200_AggDmd/75kW_aging.xlsx
+++ b/model/outputData/75_kW_1200_AggDmd/75kW_aging.xlsx
@@ -261,13 +261,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,7 +1148,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1241,7 +1240,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1315,7 +1313,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1730,6 +1727,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.065521575589582E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8041557060145607E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1656470259093251E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0909952602550647E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9648510415024904E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2643662441784302E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8783537200438872E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6309733767071826E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8555423808690087E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5969002996468518E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7435702362903461E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14294123337515743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24847449448808395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55453536815949644</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.105523760037679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4321683917473798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2254220388318746</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.826501291575042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118.32711301238679</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>387.87961998396861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1103.6811917457401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2238.0047080755035</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3026.9103394892604</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2105,7 +2174,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2203,7 +2271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2277,7 +2344,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2692,6 +2758,78 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.065521575589582E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8041557060145607E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1656470259093251E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0909952602550647E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9648510415024904E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2643662441784302E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8783537200438872E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6309733767071826E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8555423808690087E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5969002996468518E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7435702362903461E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14294123337515743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24847449448808395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55453536815949644</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.105523760037679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4321683917473798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2254220388318746</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.826501291575042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118.32711301238679</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>387.87961998396861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1103.6811917457401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2238.0047080755035</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3026.9103394892604</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6000,10 +6138,10 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="20"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34">
@@ -6162,7 +6300,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,7 +6347,9 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>0</v>
@@ -6222,7 +6362,9 @@
       <c r="B4" s="3">
         <v>8.7701670288333389E-4</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>7.065521575589582E-3</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>7.218247694651795E-3</v>
@@ -6235,7 +6377,9 @@
       <c r="B5" s="3">
         <v>7.8816865073057284E-4</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1.8041557060145607E-2</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>1.6836360676512358E-2</v>
@@ -6248,7 +6392,9 @@
       <c r="B6" s="3">
         <v>7.2212960121408563E-4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>2.1656470259093251E-2</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>2.2048614421124182E-2</v>
@@ -6261,7 +6407,9 @@
       <c r="B7" s="3">
         <v>7.0589602855079684E-4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>2.0909952602550647E-2</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>2.0205385177467759E-2</v>
@@ -6274,7 +6422,9 @@
       <c r="B8" s="3">
         <v>7.5198781098314215E-4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>1.9648510415024904E-2</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>1.9175091589924375E-2</v>
@@ -6287,7 +6437,9 @@
       <c r="B9" s="3">
         <v>1.0333903938993581E-3</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>2.2643662441784302E-2</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>2.0799609947978265E-2</v>
@@ -6300,7 +6452,9 @@
       <c r="B10" s="3">
         <v>1.5198046931821068E-3</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>2.8783537200438872E-2</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>2.3023824824551724E-2</v>
@@ -6313,7 +6467,9 @@
       <c r="B11" s="3">
         <v>2.2396883173586464E-3</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>3.6309733767071826E-2</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>2.466579810720931E-2</v>
@@ -6326,7 +6482,9 @@
       <c r="B12" s="3">
         <v>2.8495287158367094E-3</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>4.8555423808690087E-2</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>2.4418182260617219E-2</v>
@@ -6339,7 +6497,9 @@
       <c r="B13" s="3">
         <v>3.6049192248806096E-3</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>6.5969002996468518E-2</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>2.2225921438826405E-2</v>
@@ -6352,7 +6512,9 @@
       <c r="B14" s="3">
         <v>4.6191437425311069E-3</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>8.7435702362903461E-2</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>2.0271877109555702E-2</v>
@@ -6365,7 +6527,9 @@
       <c r="B15" s="3">
         <v>6.3447077704363109E-3</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>0.14294123337515743</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>2.0050781479307202E-2</v>
@@ -6378,7 +6542,9 @@
       <c r="B16" s="3">
         <v>8.1663515318707892E-3</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>0.24847449448808395</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>2.0578418810169811E-2</v>
@@ -6391,7 +6557,9 @@
       <c r="B17" s="3">
         <v>1.0871665337080038E-2</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>0.55453536815949644</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>2.1675627056189941E-2</v>
@@ -6404,7 +6572,9 @@
       <c r="B18" s="3">
         <v>1.386957299893943E-2</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>1.105523760037679</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>2.7443146136322719E-2</v>
@@ -6417,7 +6587,9 @@
       <c r="B19" s="3">
         <v>1.58559468311802E-2</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>2.4321683917473798</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>4.4057044407930339E-2</v>
@@ -6430,7 +6602,9 @@
       <c r="B20" s="3">
         <v>1.8677436428960636E-2</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>8.2254220388318746</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>0.14376571391210149</v>
@@ -6443,7 +6617,9 @@
       <c r="B21" s="3">
         <v>1.8919302081746078E-2</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>30.826501291575042</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>0.83994524972497653</v>
@@ -6456,7 +6632,9 @@
       <c r="B22" s="3">
         <v>1.6759355481174021E-2</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>118.32711301238679</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>5.6484518446767895</v>
@@ -6469,7 +6647,9 @@
       <c r="B23" s="3">
         <v>1.6035022972697533E-2</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>387.87961998396861</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>34.686811578474064</v>
@@ -6482,7 +6662,9 @@
       <c r="B24" s="3">
         <v>1.5642989290983303E-2</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>1103.6811917457401</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
         <v>156.26427200920639</v>
@@ -6495,7 +6677,9 @@
       <c r="B25" s="3">
         <v>1.3819155625264206E-2</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>2238.0047080755035</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <v>449.48996076646137</v>
@@ -6508,7 +6692,9 @@
       <c r="B26" s="5">
         <v>9.893958968378521E-3</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>3026.9103394892604</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
         <v>786.39666531255773</v>
@@ -6524,7 +6710,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ref="C27:E27" si="0">SUM(C3:C26)</f>
-        <v>0</v>
+        <v>6918.7155579595637</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
@@ -6545,7 +6731,7 @@
       </c>
       <c r="C28" s="3">
         <f>C27/24</f>
-        <v>0</v>
+        <v>288.27981491498184</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ref="D28:E28" si="1">D27/24</f>
@@ -6566,7 +6752,7 @@
       </c>
       <c r="C29" s="2">
         <f>(C28*24*100)/180000</f>
-        <v>0</v>
+        <v>3.8437308655330913</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ref="D29:E29" si="2">(D28*24*100)/180000</f>
@@ -6591,7 +6777,7 @@
       </c>
       <c r="C30" s="2">
         <f>1-C29</f>
-        <v>1</v>
+        <v>-2.8437308655330913</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ref="D30:E30" si="3">1-D29</f>
@@ -6612,7 +6798,7 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" ref="C31:E31" si="4">C29*180000</f>
-        <v>0</v>
+        <v>691871.5557959564</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="4"/>
@@ -6633,7 +6819,7 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" ref="C32:E32" si="5">C31/24</f>
-        <v>0</v>
+        <v>28827.981491498183</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="5"/>
@@ -6647,10 +6833,10 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="20"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" s="18" t="s">
@@ -6673,7 +6859,7 @@
       </c>
       <c r="C35">
         <f>C30*180000</f>
-        <v>180000</v>
+        <v>-511871.55579595646</v>
       </c>
       <c r="D35">
         <f>D30*180000</f>
@@ -6686,15 +6872,15 @@
       <c r="G35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <f>B28</f>
         <v>7.6902974666983965E-3</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <f>B29</f>
         <v>1.0253729955597861E-4</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <f>B32</f>
         <v>0.76902974666983959</v>
       </c>
@@ -6706,7 +6892,7 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:E36" si="6">180000-C35</f>
-        <v>0</v>
+        <v>691871.5557959564</v>
       </c>
       <c r="D36">
         <f t="shared" si="6"/>
@@ -6719,17 +6905,17 @@
       <c r="G36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <f>C28</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="24">
+        <v>288.27981491498184</v>
+      </c>
+      <c r="I36" s="23">
         <f>C29</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="22">
+        <v>3.8437308655330913</v>
+      </c>
+      <c r="J36" s="21">
         <f>C32</f>
-        <v>0</v>
+        <v>28827.981491498183</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -6739,7 +6925,7 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:E37" si="7">C36/24</f>
-        <v>0</v>
+        <v>28827.981491498183</v>
       </c>
       <c r="D37">
         <f t="shared" si="7"/>
@@ -6752,15 +6938,15 @@
       <c r="G37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="21">
         <f>D28</f>
         <v>0</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="23">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <f>D32</f>
         <v>0</v>
       </c>
@@ -6769,15 +6955,15 @@
       <c r="G38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="21">
         <f>E28</f>
         <v>59.742690266922999</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <f>E29</f>
         <v>0.7965692035589732</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <f>E32</f>
         <v>5974.2690266922991</v>
       </c>
